--- a/data/human/adult/validation/Scenarios/DrugsValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/DrugsValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngineStable\data\human\adult\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\stress_update\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F0557-AEEC-48C8-8B47-2BDF9CF8705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA7E69-859E-4EC9-80E2-12DC4432825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="8715" windowWidth="33585" windowHeight="21480" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="18" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1207,9 +1207,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,9 +1236,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1251,10 +1245,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1276,75 +1270,56 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,31 +1328,10 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1387,9 +1341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1457,9 +1408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1497,9 +1448,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,26 +1483,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,26 +1518,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1780,653 +1697,621 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="K1" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-    </row>
-    <row r="4" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="K3" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0</v>
       </c>
-      <c r="K4" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="K4" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="K5" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="K6" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-    </row>
-    <row r="8" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="K7" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="E8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9">
         <v>5</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="K8" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="K9" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="K10" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E11" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="K11" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9">
         <v>5</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>0</v>
       </c>
-      <c r="K12" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="K12" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E13" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="K13" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>0</v>
       </c>
-      <c r="K14" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="K14" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>3</v>
       </c>
-      <c r="K15" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="K15" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9">
         <v>5</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
-      <c r="K16" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="59" t="s">
+      <c r="K16" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="60">
+      <c r="E17" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="47">
         <f>SUM(F3:F16)</f>
         <v>65</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="49">
         <f>SUM(H3:H16)</f>
         <v>2</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="50">
         <f>SUM(J3:J16)</f>
         <v>3</v>
       </c>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="51" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2457,57 +2342,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2521,7 +2406,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W16"/>
+  <dimension ref="A2:W14"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2529,312 +2414,274 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" style="39" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="1" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="O2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="19" t="s">
+      <c r="U2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="21" t="s">
+      <c r="A3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="41">
+      <c r="E4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="36">
         <v>30</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="35">
+      <c r="G4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="32">
         <v>200</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="20" t="s">
+      <c r="Q4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="26" t="s">
+      <c r="S4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="20" t="s">
+      <c r="U4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-    </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2848,7 +2695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A2:S17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
@@ -2858,971 +2705,968 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.7109375" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.7109375" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="74"/>
-    </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="42" t="s">
+      <c r="S2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="3">
         <v>150</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="14" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="S4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="13" t="s">
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="14" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="42">
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5">
         <v>30</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>200</v>
       </c>
-      <c r="I7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="15" t="s">
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="15" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="S7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="42">
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5">
         <v>30</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="2">
         <v>350</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="15" t="s">
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="15" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="3">
         <v>70</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="15" t="s">
+      <c r="O9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="13" t="s">
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="S9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>30</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="15" t="s">
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="13" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>30</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="15" t="s">
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="O11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="14" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="1">
         <v>330</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="3">
         <v>350</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="15" t="s">
+      <c r="M12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="15" t="s">
+      <c r="O12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="15" t="s">
+      <c r="Q12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="15" t="s">
+      <c r="M13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="15" t="s">
+      <c r="O13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="15" t="s">
+      <c r="Q13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="S13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>30</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="15" t="s">
+      <c r="O14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="15" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="S14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="1">
         <v>30</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="M15" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="15" t="s">
+      <c r="M15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="15" t="s">
+      <c r="O15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="Q15" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="13" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="15" t="s">
+      <c r="O16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="13" t="s">
+      <c r="Q16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="42">
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5">
         <v>30</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>100</v>
       </c>
-      <c r="I17" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="15" t="s">
+      <c r="M17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="15" t="s">
+      <c r="O17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="13" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="S17" s="42" t="s">
+      <c r="S17" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3842,8 +3686,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
@@ -3863,148 +3707,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="21" t="s">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4027,49 +3858,49 @@
       <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>0.76100000000000001</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="14">
         <v>73</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>118</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="T4" s="12">
+      <c r="S4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="14">
         <v>72</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4092,49 +3923,49 @@
       <c r="F5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="14">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="K5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="14">
         <v>70</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="15">
+      <c r="O5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="11">
         <v>118</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="S5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="14">
         <v>72</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4157,49 +3988,49 @@
       <c r="F6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="14">
         <v>3.71</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="15">
-        <v>68</v>
-      </c>
-      <c r="M6" s="40" t="s">
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="53">
+        <v>72</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="O6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="11">
         <v>125</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="15">
-        <v>84</v>
-      </c>
-      <c r="U6" s="40" t="s">
+      <c r="S6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="14">
+        <v>82</v>
+      </c>
+      <c r="U6" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4213,7 +4044,7 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4222,49 +4053,49 @@
       <c r="F7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="14">
         <v>5.05</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="15">
-        <v>69</v>
-      </c>
-      <c r="M7" s="40" t="s">
+      <c r="K7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="53">
+        <v>75</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="15">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="40" t="s">
+      <c r="O7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="11">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="15">
-        <v>98</v>
-      </c>
-      <c r="U7" s="40" t="s">
+      <c r="S7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="14">
+        <v>95</v>
+      </c>
+      <c r="U7" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4278,7 +4109,7 @@
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>0.2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4287,49 +4118,49 @@
       <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="14">
         <v>7.1</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="15">
-        <v>69</v>
-      </c>
-      <c r="M8" s="40" t="s">
+      <c r="K8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="53">
+        <v>76</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="15">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="40" t="s">
+      <c r="O8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="11">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="15">
-        <v>100</v>
-      </c>
-      <c r="U8" s="40" t="s">
+      <c r="S8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="14">
+        <v>98</v>
+      </c>
+      <c r="U8" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4343,165 +4174,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D12168-200B-46C7-8F89-55DD217C0DF8}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U7"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="53"/>
-    <col min="2" max="2" width="30.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="53" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="53" customWidth="1"/>
-    <col min="11" max="11" width="24" style="53" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="53" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" style="53" customWidth="1"/>
-    <col min="16" max="16" width="23" style="53" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" style="53" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" style="53" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" style="53" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="53"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="32.5703125" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F1" s="74"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="21" t="s">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4524,49 +4353,49 @@
       <c r="F4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>6</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="14">
         <v>-2</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="O4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="14">
         <v>6</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="15">
+      <c r="S4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="14">
         <v>9</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4589,49 +4418,49 @@
       <c r="F5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="14">
         <v>12.4</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>-2</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="15">
+      <c r="O5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="14">
         <v>9</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="S5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="14">
         <v>13</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4654,49 +4483,49 @@
       <c r="F6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="14">
         <v>24.9</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="53">
         <v>-1</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>13</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="15">
+      <c r="S6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="14">
         <v>19</v>
       </c>
-      <c r="U6" s="40" t="s">
+      <c r="U6" s="35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4710,7 +4539,7 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4719,54 +4548,54 @@
       <c r="F7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="14">
         <v>48.4</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="53">
         <v>2</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>17</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="35" t="s">
         <v>56</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="S7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="14">
         <v>25</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U8" s="40"/>
+      <c r="U8" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4802,219 +4631,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="O2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="21" t="s">
+      <c r="A3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="41">
+      <c r="E4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="36">
         <v>30</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="35">
+      <c r="G4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="32">
         <v>450</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/Scenarios/DrugsValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/DrugsValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\stress_update\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA7E69-859E-4EC9-80E2-12DC4432825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818FEB7-04CE-4FCC-85A1-8EF8DE3FBCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="8715" windowWidth="33585" windowHeight="21480" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="6990" windowWidth="37740" windowHeight="21480" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="18" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="185">
   <si>
     <t>Event</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">Marked Decrease @cite Morgan2006Clinical p200; 25-40% Significant Decrease @cite Kanaya2003differential </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-25% Decrease @cite chase2010model </t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1703,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K17" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,13 +1879,13 @@
         <v>54</v>
       </c>
       <c r="F5" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>94</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="52" t="s">
         <v>95</v>
@@ -1946,13 +1949,13 @@
         <v>54</v>
       </c>
       <c r="F7" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>95</v>
@@ -2295,14 +2298,14 @@
       </c>
       <c r="F17" s="47">
         <f>SUM(F3:F16)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>94</v>
       </c>
       <c r="H17" s="49">
         <f>SUM(H3:H16)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>95</v>
@@ -2408,8 +2411,8 @@
   </sheetPr>
   <dimension ref="A2:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2698,9 +2701,9 @@
   <dimension ref="A2:S17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="F4" sqref="F4"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection pane="topRight" activeCell="S17" sqref="A2:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2721,7 @@
     <col min="11" max="11" width="34.5703125" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="52.85546875" customWidth="1"/>
     <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -2885,7 +2888,7 @@
         <v>64</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>64</v>
@@ -3059,9 +3062,9 @@
         <v>77</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>77</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -4174,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D12168-200B-46C7-8F89-55DD217C0DF8}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
